--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/HlThreeLaqhcp.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/HlThreeLaqhcp.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF764F8-5A7B-4CE1-BC2A-57082A01C9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="82">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -331,25 +332,18 @@
     <t>DirectorCode</t>
   </si>
   <si>
-    <t>CalDate,DeptCode,DistCode,UnitCode</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>findCalDate</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CalDate =</t>
-  </si>
-  <si>
     <t>單位、區部、部室業績累計檔</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeptCode,DistCode,UnitCode</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13">
     <font>
       <sz val="12"/>
@@ -545,7 +539,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -557,9 +551,6 @@
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -663,10 +654,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="2"/>
-    <cellStyle name="一般 2 2 2" xfId="4"/>
-    <cellStyle name="一般 2 3" xfId="3"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="一般 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -757,6 +748,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -792,6 +800,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -967,729 +992,729 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="6" style="16" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="28" style="18" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46" style="16" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="7"/>
+    <col min="1" max="1" width="6" style="15" customWidth="1"/>
+    <col min="2" max="2" width="23.54296875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="28" style="17" customWidth="1"/>
+    <col min="4" max="4" width="25.08984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.81640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46" style="15" customWidth="1"/>
+    <col min="8" max="16384" width="21.453125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="D1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="8" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" spans="1:7" ht="32.4">
-      <c r="A3" s="37" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" ht="34">
+      <c r="A3" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="37"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="35"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="36"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" s="15" customFormat="1">
-      <c r="A8" s="8" t="s">
+      <c r="D7" s="12"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" s="14" customFormat="1">
+      <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="24">
+      <c r="A9" s="23">
         <v>1</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="30">
         <v>8</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="19"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="24">
+      <c r="A10" s="23">
         <v>2</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="27">
         <v>6</v>
       </c>
-      <c r="F10" s="28"/>
+      <c r="F10" s="27"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="24">
+      <c r="A11" s="23">
         <v>3</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="27">
         <v>6</v>
       </c>
-      <c r="F11" s="28"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="24">
+      <c r="A12" s="23">
         <v>4</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="27">
         <v>6</v>
       </c>
-      <c r="F12" s="28"/>
-    </row>
-    <row r="13" spans="1:7" s="21" customFormat="1">
-      <c r="A13" s="24">
+      <c r="F12" s="27"/>
+    </row>
+    <row r="13" spans="1:7" s="20" customFormat="1">
+      <c r="A13" s="23">
         <v>5</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="27">
         <v>6</v>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="22"/>
-    </row>
-    <row r="14" spans="1:7" s="21" customFormat="1">
-      <c r="A14" s="24">
+      <c r="F13" s="27"/>
+      <c r="G13" s="21"/>
+    </row>
+    <row r="14" spans="1:7" s="20" customFormat="1">
+      <c r="A14" s="23">
         <v>6</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="27">
         <v>20</v>
       </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="22"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="21"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="24">
+      <c r="A15" s="23">
         <v>7</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="27">
         <v>20</v>
       </c>
-      <c r="F15" s="28"/>
+      <c r="F15" s="27"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="24">
+      <c r="A16" s="23">
         <v>8</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="27">
         <v>20</v>
       </c>
-      <c r="F16" s="28"/>
+      <c r="F16" s="27"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="24">
+      <c r="A17" s="23">
         <v>9</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="27">
         <v>15</v>
       </c>
-      <c r="F17" s="28"/>
+      <c r="F17" s="27"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="24">
+      <c r="A18" s="23">
         <v>10</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="27">
         <v>15</v>
       </c>
-      <c r="F18" s="28"/>
+      <c r="F18" s="27"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="24">
+      <c r="A19" s="23">
         <v>11</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="28">
+      <c r="E19" s="27">
         <v>1</v>
       </c>
-      <c r="F19" s="28"/>
+      <c r="F19" s="27"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="24">
+      <c r="A20" s="23">
         <v>12</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="28">
+      <c r="E20" s="27">
         <v>14</v>
       </c>
-      <c r="F20" s="28">
+      <c r="F20" s="27">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="24">
+      <c r="A21" s="23">
         <v>13</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="28">
+      <c r="E21" s="27">
         <v>14</v>
       </c>
-      <c r="F21" s="28">
+      <c r="F21" s="27">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="24">
+      <c r="A22" s="23">
         <v>14</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="E22" s="28">
+      <c r="E22" s="27">
         <v>14</v>
       </c>
-      <c r="F22" s="28">
+      <c r="F22" s="27">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="24">
+      <c r="A23" s="23">
         <v>15</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="28">
+      <c r="E23" s="27">
         <v>14</v>
       </c>
-      <c r="F23" s="28">
+      <c r="F23" s="27">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="24">
+      <c r="A24" s="23">
         <v>16</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="28">
+      <c r="E24" s="27">
         <v>14</v>
       </c>
-      <c r="F24" s="28">
+      <c r="F24" s="27">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="24">
+      <c r="A25" s="23">
         <v>17</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="E25" s="28">
+      <c r="E25" s="27">
         <v>14</v>
       </c>
-      <c r="F25" s="28">
+      <c r="F25" s="27">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="24">
+      <c r="A26" s="23">
         <v>18</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="28">
+      <c r="E26" s="27">
         <v>14</v>
       </c>
-      <c r="F26" s="28">
+      <c r="F26" s="27">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="24">
+      <c r="A27" s="23">
         <v>19</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="28">
+      <c r="E27" s="27">
         <v>14</v>
       </c>
-      <c r="F27" s="28">
+      <c r="F27" s="27">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="24">
+      <c r="A28" s="23">
         <v>20</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="28">
+      <c r="E28" s="27">
         <v>14</v>
       </c>
-      <c r="F28" s="28">
+      <c r="F28" s="27">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="24">
+      <c r="A29" s="23">
         <v>21</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="28">
+      <c r="E29" s="27">
         <v>14</v>
       </c>
-      <c r="F29" s="28">
+      <c r="F29" s="27">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="24">
+      <c r="A30" s="23">
         <v>22</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="E30" s="28">
+      <c r="E30" s="27">
         <v>7</v>
       </c>
-      <c r="F30" s="28"/>
+      <c r="F30" s="27"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="24">
+      <c r="A31" s="23">
         <v>23</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E31" s="28">
+      <c r="E31" s="27">
         <v>8</v>
       </c>
-      <c r="F31" s="28"/>
+      <c r="F31" s="27"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="24">
+      <c r="A32" s="23">
         <v>24</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E32" s="28">
+      <c r="E32" s="27">
         <v>8</v>
       </c>
-      <c r="F32" s="22"/>
+      <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="24">
+      <c r="A33" s="23">
         <v>25</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E33" s="28">
+      <c r="E33" s="27">
         <v>6</v>
       </c>
-      <c r="F33" s="22"/>
+      <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="24">
+      <c r="A34" s="23">
         <v>26</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="D34" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="28">
+      <c r="E34" s="27">
         <v>8</v>
       </c>
-      <c r="F34" s="22"/>
+      <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="24">
+      <c r="A35" s="23">
         <v>27</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E35" s="28">
+      <c r="E35" s="27">
         <v>6</v>
       </c>
-      <c r="F35" s="22"/>
+      <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="24"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="22"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="24"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="22"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="24"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="22"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="24"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="22"/>
+      <c r="A39" s="23"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="24"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="22"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="24"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="22"/>
+      <c r="A41" s="23"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="24"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="22"/>
+      <c r="A42" s="23"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="24"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="22"/>
+      <c r="A43" s="23"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="24"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="22"/>
+      <c r="A44" s="23"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="24"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="22"/>
+      <c r="A45" s="23"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="24"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="28"/>
+      <c r="A46" s="23"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1708,19 +1733,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="51.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.90625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="51.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1736,24 +1761,16 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
+      <c r="A3" s="24"/>
+      <c r="C3" s="19"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="25"/>
-      <c r="C4" s="20"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="25"/>
+      <c r="A4" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/HlThreeLaqhcp.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/HlThreeLaqhcp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF764F8-5A7B-4CE1-BC2A-57082A01C9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588055FB-D413-4007-A340-95A4142F8088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -996,7 +996,7 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17"/>
@@ -1222,8 +1222,8 @@
       <c r="C14" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="25" t="s">
-        <v>70</v>
+      <c r="D14" s="31" t="s">
+        <v>71</v>
       </c>
       <c r="E14" s="27">
         <v>20</v>
@@ -1241,8 +1241,8 @@
       <c r="C15" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="25" t="s">
-        <v>70</v>
+      <c r="D15" s="31" t="s">
+        <v>71</v>
       </c>
       <c r="E15" s="27">
         <v>20</v>
@@ -1259,8 +1259,8 @@
       <c r="C16" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="25" t="s">
-        <v>70</v>
+      <c r="D16" s="31" t="s">
+        <v>71</v>
       </c>
       <c r="E16" s="27">
         <v>20</v>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/HlThreeLaqhcp.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/HlThreeLaqhcp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588055FB-D413-4007-A340-95A4142F8088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDB731F-0F06-4556-829A-62BA5E8BDFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -344,7 +344,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -441,7 +441,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -451,12 +451,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,7 +533,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -552,10 +546,10 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -567,9 +561,6 @@
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -582,9 +573,6 @@
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -594,21 +582,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -624,32 +597,35 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -673,9 +649,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -713,9 +689,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -748,26 +724,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -800,26 +759,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -995,26 +937,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6" style="15" customWidth="1"/>
-    <col min="2" max="2" width="23.54296875" style="15" customWidth="1"/>
-    <col min="3" max="3" width="28" style="17" customWidth="1"/>
-    <col min="4" max="4" width="25.08984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.81640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46" style="15" customWidth="1"/>
-    <col min="8" max="16384" width="21.453125" style="6"/>
+    <col min="1" max="1" width="6" style="13" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="28" style="15" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46" style="13" customWidth="1"/>
+    <col min="8" max="16384" width="21.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="3" t="s">
         <v>28</v>
       </c>
@@ -1025,79 +967,79 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="1:7" ht="34">
-      <c r="A3" s="36" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="33" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="36" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="33" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="34"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="33" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="35"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:7" s="14" customFormat="1">
+      <c r="D7" s="11"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1116,222 +1058,230 @@
       <c r="F8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="23">
+    <row r="9" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="27">
         <v>8</v>
       </c>
       <c r="F9" s="27"/>
-      <c r="G9" s="18"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="23">
+      <c r="G9" s="28"/>
+    </row>
+    <row r="10" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="16">
         <v>2</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="26" t="s">
         <v>70</v>
       </c>
       <c r="E10" s="27">
         <v>6</v>
       </c>
       <c r="F10" s="27"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="23">
+      <c r="G10" s="29"/>
+    </row>
+    <row r="11" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="16">
         <v>3</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="26" t="s">
         <v>70</v>
       </c>
       <c r="E11" s="27">
         <v>6</v>
       </c>
       <c r="F11" s="27"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="23">
+      <c r="G11" s="29"/>
+    </row>
+    <row r="12" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="16">
         <v>4</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="26" t="s">
         <v>70</v>
       </c>
       <c r="E12" s="27">
         <v>6</v>
       </c>
       <c r="F12" s="27"/>
-    </row>
-    <row r="13" spans="1:7" s="20" customFormat="1">
-      <c r="A13" s="23">
+      <c r="G12" s="29"/>
+    </row>
+    <row r="13" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="16">
         <v>5</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="26" t="s">
         <v>70</v>
       </c>
       <c r="E13" s="27">
         <v>6</v>
       </c>
       <c r="F13" s="27"/>
-      <c r="G13" s="21"/>
-    </row>
-    <row r="14" spans="1:7" s="20" customFormat="1">
-      <c r="A14" s="23">
+      <c r="G13" s="29"/>
+    </row>
+    <row r="14" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="16">
         <v>6</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="26" t="s">
         <v>71</v>
       </c>
       <c r="E14" s="27">
         <v>20</v>
       </c>
       <c r="F14" s="27"/>
-      <c r="G14" s="21"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="23">
+      <c r="G14" s="29"/>
+    </row>
+    <row r="15" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="16">
         <v>7</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="26" t="s">
         <v>71</v>
       </c>
       <c r="E15" s="27">
         <v>20</v>
       </c>
       <c r="F15" s="27"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="23">
+      <c r="G15" s="29"/>
+    </row>
+    <row r="16" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="16">
         <v>8</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="26" t="s">
         <v>71</v>
       </c>
       <c r="E16" s="27">
         <v>20</v>
       </c>
       <c r="F16" s="27"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="23">
+      <c r="G16" s="29"/>
+    </row>
+    <row r="17" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="16">
         <v>9</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="26" t="s">
         <v>71</v>
       </c>
       <c r="E17" s="27">
         <v>15</v>
       </c>
       <c r="F17" s="27"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="23">
+      <c r="G17" s="29"/>
+    </row>
+    <row r="18" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="16">
         <v>10</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="26" t="s">
         <v>71</v>
       </c>
       <c r="E18" s="27">
         <v>15</v>
       </c>
       <c r="F18" s="27"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="23">
+      <c r="G18" s="29"/>
+    </row>
+    <row r="19" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="16">
         <v>11</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="26" t="s">
         <v>70</v>
       </c>
       <c r="E19" s="27">
         <v>1</v>
       </c>
       <c r="F19" s="27"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="23">
+      <c r="G19" s="29"/>
+    </row>
+    <row r="20" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="16">
         <v>12</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="26" t="s">
         <v>72</v>
       </c>
       <c r="E20" s="27">
@@ -1340,18 +1290,19 @@
       <c r="F20" s="27">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="23">
+      <c r="G20" s="29"/>
+    </row>
+    <row r="21" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="16">
         <v>13</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="26" t="s">
         <v>72</v>
       </c>
       <c r="E21" s="27">
@@ -1360,18 +1311,19 @@
       <c r="F21" s="27">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="23">
+      <c r="G21" s="29"/>
+    </row>
+    <row r="22" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="16">
         <v>14</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="26" t="s">
         <v>72</v>
       </c>
       <c r="E22" s="27">
@@ -1380,18 +1332,19 @@
       <c r="F22" s="27">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="23">
+      <c r="G22" s="29"/>
+    </row>
+    <row r="23" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="16">
         <v>15</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="26" t="s">
         <v>72</v>
       </c>
       <c r="E23" s="27">
@@ -1400,18 +1353,19 @@
       <c r="F23" s="27">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="23">
+      <c r="G23" s="29"/>
+    </row>
+    <row r="24" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="16">
         <v>16</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="26" t="s">
         <v>72</v>
       </c>
       <c r="E24" s="27">
@@ -1420,18 +1374,19 @@
       <c r="F24" s="27">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="23">
+      <c r="G24" s="29"/>
+    </row>
+    <row r="25" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="16">
         <v>17</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="26" t="s">
         <v>72</v>
       </c>
       <c r="E25" s="27">
@@ -1440,18 +1395,19 @@
       <c r="F25" s="27">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="23">
+      <c r="G25" s="29"/>
+    </row>
+    <row r="26" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="16">
         <v>18</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="26" t="s">
         <v>72</v>
       </c>
       <c r="E26" s="27">
@@ -1460,18 +1416,19 @@
       <c r="F26" s="27">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="23">
+      <c r="G26" s="29"/>
+    </row>
+    <row r="27" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="16">
         <v>19</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="26" t="s">
         <v>72</v>
       </c>
       <c r="E27" s="27">
@@ -1480,18 +1437,19 @@
       <c r="F27" s="27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="23">
+      <c r="G27" s="29"/>
+    </row>
+    <row r="28" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="16">
         <v>20</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="26" t="s">
         <v>72</v>
       </c>
       <c r="E28" s="27">
@@ -1500,18 +1458,19 @@
       <c r="F28" s="27">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="23">
+      <c r="G28" s="29"/>
+    </row>
+    <row r="29" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="16">
         <v>21</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="26" t="s">
         <v>72</v>
       </c>
       <c r="E29" s="27">
@@ -1520,201 +1479,191 @@
       <c r="F29" s="27">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="23">
+      <c r="G29" s="29"/>
+    </row>
+    <row r="30" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="16">
         <v>22</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="26" t="s">
         <v>72</v>
       </c>
       <c r="E30" s="27">
         <v>7</v>
       </c>
       <c r="F30" s="27"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="23">
+      <c r="G30" s="29"/>
+    </row>
+    <row r="31" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="16">
         <v>23</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="26" t="s">
         <v>29</v>
       </c>
       <c r="E31" s="27">
         <v>8</v>
       </c>
       <c r="F31" s="27"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="23">
+      <c r="G31" s="29"/>
+    </row>
+    <row r="32" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="16">
         <v>24</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="25" t="s">
+      <c r="D32" s="26" t="s">
         <v>20</v>
       </c>
       <c r="E32" s="27">
         <v>8</v>
       </c>
-      <c r="F32" s="21"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="23">
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+    </row>
+    <row r="33" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="16">
         <v>25</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D33" s="26" t="s">
         <v>23</v>
       </c>
       <c r="E33" s="27">
         <v>6</v>
       </c>
-      <c r="F33" s="21"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="23">
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+    </row>
+    <row r="34" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="16">
         <v>26</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="25" t="s">
+      <c r="D34" s="26" t="s">
         <v>20</v>
       </c>
       <c r="E34" s="27">
         <v>8</v>
       </c>
-      <c r="F34" s="21"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="23">
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+    </row>
+    <row r="35" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="16">
         <v>27</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="D35" s="26" t="s">
         <v>23</v>
       </c>
       <c r="E35" s="27">
         <v>6</v>
       </c>
-      <c r="F35" s="21"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="23"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="21"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="23"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="21"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="23"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="21"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="23"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="21"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="23"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="21"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="23"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="21"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="23"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="21"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="23"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="21"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="23"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="21"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="23"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="21"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="23"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="27"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+    </row>
+    <row r="36" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="16"/>
+      <c r="B36" s="15"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+    </row>
+    <row r="37" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="16"/>
+      <c r="B37" s="15"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+    </row>
+    <row r="38" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="16"/>
+      <c r="B38" s="15"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+    </row>
+    <row r="39" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="16"/>
+      <c r="B39" s="15"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+    </row>
+    <row r="40" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="16"/>
+      <c r="B40" s="15"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+    </row>
+    <row r="41" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="16"/>
+      <c r="B41" s="15"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+    </row>
+    <row r="42" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="16"/>
+      <c r="B42" s="15"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+    </row>
+    <row r="43" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="16"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="20"/>
+    </row>
+    <row r="44" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="16"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="20"/>
+    </row>
+    <row r="45" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="16"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="20"/>
+    </row>
+    <row r="46" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="16"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1741,15 +1690,15 @@
       <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="51.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="51.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1760,17 +1709,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="24"/>
-      <c r="C3" s="19"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="24"/>
+    <row r="3" spans="1:3" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="17"/>
+    </row>
+    <row r="4" spans="1:3" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/HlThreeLaqhcp.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/HlThreeLaqhcp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDB731F-0F06-4556-829A-62BA5E8BDFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27B24DB-4775-4AE0-80DA-FC279E00C80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,10 +96,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>CreateEmpNo</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -338,6 +334,9 @@
   <si>
     <t>DeptCode,DistCode,UnitCode</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -533,7 +532,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -600,6 +599,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -611,21 +613,6 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -937,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -953,25 +940,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="24"/>
       <c r="C1" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>3</v>
@@ -981,12 +968,12 @@
       <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>17</v>
@@ -996,10 +983,10 @@
       <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="10"/>
       <c r="D4" s="11"/>
       <c r="E4" s="4"/>
@@ -1007,10 +994,10 @@
       <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="25"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="3"/>
       <c r="D5" s="11"/>
       <c r="E5" s="4"/>
@@ -1018,10 +1005,10 @@
       <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="23"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="3"/>
       <c r="D6" s="11"/>
       <c r="E6" s="4"/>
@@ -1029,10 +1016,10 @@
       <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="24"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="3"/>
       <c r="D7" s="11"/>
       <c r="E7" s="4"/>
@@ -1066,599 +1053,565 @@
       <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="27">
+      <c r="B9" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="20">
         <v>8</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="28"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>2</v>
       </c>
-      <c r="B10" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="27">
+      <c r="B10" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="20">
         <v>6</v>
       </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="29"/>
+      <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>3</v>
       </c>
-      <c r="B11" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="27">
+      <c r="B11" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="20">
         <v>6</v>
       </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="29"/>
+      <c r="F11" s="20"/>
     </row>
     <row r="12" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>4</v>
       </c>
-      <c r="B12" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="27">
+      <c r="B12" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="20">
         <v>6</v>
       </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="29"/>
+      <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>5</v>
       </c>
-      <c r="B13" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="27">
+      <c r="B13" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="20">
         <v>6</v>
       </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="29"/>
+      <c r="F13" s="20"/>
     </row>
     <row r="14" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>6</v>
       </c>
-      <c r="B14" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="27">
+      <c r="B14" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="20">
         <v>20</v>
       </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="29"/>
+      <c r="F14" s="20"/>
     </row>
     <row r="15" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
         <v>7</v>
       </c>
-      <c r="B15" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="27">
+      <c r="B15" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="20">
         <v>20</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="29"/>
+      <c r="F15" s="20"/>
     </row>
     <row r="16" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A16" s="16">
         <v>8</v>
       </c>
-      <c r="B16" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="27">
+      <c r="B16" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="20">
         <v>20</v>
       </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="29"/>
-    </row>
-    <row r="17" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="F16" s="20"/>
+    </row>
+    <row r="17" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <v>9</v>
       </c>
-      <c r="B17" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="27">
+      <c r="B17" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="20">
         <v>15</v>
       </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="29"/>
-    </row>
-    <row r="18" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="F17" s="20"/>
+    </row>
+    <row r="18" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A18" s="16">
         <v>10</v>
       </c>
-      <c r="B18" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="27">
+      <c r="B18" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="20">
         <v>15</v>
       </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="29"/>
-    </row>
-    <row r="19" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="F18" s="20"/>
+    </row>
+    <row r="19" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A19" s="16">
         <v>11</v>
       </c>
-      <c r="B19" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="27">
+      <c r="B19" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="20">
         <v>1</v>
       </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="29"/>
-    </row>
-    <row r="20" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="F19" s="20"/>
+    </row>
+    <row r="20" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A20" s="16">
         <v>12</v>
       </c>
-      <c r="B20" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="27">
+      <c r="B20" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="20">
         <v>14</v>
       </c>
-      <c r="F20" s="27">
+      <c r="F20" s="20">
         <v>2</v>
       </c>
-      <c r="G20" s="29"/>
-    </row>
-    <row r="21" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A21" s="16">
         <v>13</v>
       </c>
-      <c r="B21" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="27">
+      <c r="B21" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="20">
         <v>14</v>
       </c>
-      <c r="F21" s="27">
+      <c r="F21" s="20">
         <v>2</v>
       </c>
-      <c r="G21" s="29"/>
-    </row>
-    <row r="22" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A22" s="16">
         <v>14</v>
       </c>
-      <c r="B22" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" s="27">
+      <c r="B22" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="20">
         <v>14</v>
       </c>
-      <c r="F22" s="27">
+      <c r="F22" s="20">
         <v>2</v>
       </c>
-      <c r="G22" s="29"/>
-    </row>
-    <row r="23" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A23" s="16">
         <v>15</v>
       </c>
-      <c r="B23" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="27">
+      <c r="B23" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="20">
         <v>14</v>
       </c>
-      <c r="F23" s="27">
+      <c r="F23" s="20">
         <v>2</v>
       </c>
-      <c r="G23" s="29"/>
-    </row>
-    <row r="24" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A24" s="16">
         <v>16</v>
       </c>
-      <c r="B24" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="27">
+      <c r="B24" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="20">
         <v>14</v>
       </c>
-      <c r="F24" s="27">
+      <c r="F24" s="20">
         <v>2</v>
       </c>
-      <c r="G24" s="29"/>
-    </row>
-    <row r="25" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A25" s="16">
         <v>17</v>
       </c>
-      <c r="B25" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" s="27">
+      <c r="B25" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="20">
         <v>14</v>
       </c>
-      <c r="F25" s="27">
+      <c r="F25" s="20">
         <v>2</v>
       </c>
-      <c r="G25" s="29"/>
-    </row>
-    <row r="26" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A26" s="16">
         <v>18</v>
       </c>
-      <c r="B26" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" s="27">
+      <c r="B26" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="20">
         <v>14</v>
       </c>
-      <c r="F26" s="27">
+      <c r="F26" s="20">
         <v>2</v>
       </c>
-      <c r="G26" s="29"/>
-    </row>
-    <row r="27" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A27" s="16">
         <v>19</v>
       </c>
-      <c r="B27" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="27">
+      <c r="B27" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="20">
         <v>14</v>
       </c>
-      <c r="F27" s="27">
+      <c r="F27" s="20">
         <v>2</v>
       </c>
-      <c r="G27" s="29"/>
-    </row>
-    <row r="28" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A28" s="16">
         <v>20</v>
       </c>
-      <c r="B28" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="E28" s="27">
+      <c r="B28" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="20">
         <v>14</v>
       </c>
-      <c r="F28" s="27">
+      <c r="F28" s="20">
         <v>2</v>
       </c>
-      <c r="G28" s="29"/>
-    </row>
-    <row r="29" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A29" s="16">
         <v>21</v>
       </c>
-      <c r="B29" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" s="27">
+      <c r="B29" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="20">
         <v>14</v>
       </c>
-      <c r="F29" s="27">
+      <c r="F29" s="20">
         <v>2</v>
       </c>
-      <c r="G29" s="29"/>
-    </row>
-    <row r="30" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
         <v>22</v>
       </c>
-      <c r="B30" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="E30" s="27">
+      <c r="B30" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="20">
         <v>7</v>
       </c>
-      <c r="F30" s="27"/>
-      <c r="G30" s="29"/>
-    </row>
-    <row r="31" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="F30" s="20"/>
+    </row>
+    <row r="31" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A31" s="16">
         <v>23</v>
       </c>
-      <c r="B31" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="27">
+      <c r="B31" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="20">
         <v>8</v>
       </c>
-      <c r="F31" s="27"/>
-      <c r="G31" s="29"/>
-    </row>
-    <row r="32" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="F31" s="20"/>
+    </row>
+    <row r="32" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A32" s="16">
         <v>24</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" s="27">
-        <v>8</v>
-      </c>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-    </row>
-    <row r="33" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="D32" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="20"/>
+    </row>
+    <row r="33" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A33" s="16">
         <v>25</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="D33" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="27">
+      <c r="E33" s="20">
         <v>6</v>
       </c>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-    </row>
-    <row r="34" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A34" s="16">
         <v>26</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" s="27">
-        <v>8</v>
-      </c>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-    </row>
-    <row r="35" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="D34" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" s="20"/>
+    </row>
+    <row r="35" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A35" s="16">
         <v>27</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35" s="27">
+      <c r="D35" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="20">
         <v>6</v>
       </c>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-    </row>
-    <row r="36" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A36" s="16"/>
       <c r="B36" s="15"/>
       <c r="D36" s="21"/>
       <c r="E36" s="21"/>
     </row>
-    <row r="37" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A37" s="16"/>
       <c r="B37" s="15"/>
       <c r="D37" s="21"/>
       <c r="E37" s="21"/>
     </row>
-    <row r="38" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A38" s="16"/>
       <c r="B38" s="15"/>
       <c r="D38" s="21"/>
       <c r="E38" s="21"/>
     </row>
-    <row r="39" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A39" s="16"/>
       <c r="B39" s="15"/>
       <c r="D39" s="21"/>
       <c r="E39" s="21"/>
     </row>
-    <row r="40" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A40" s="16"/>
       <c r="B40" s="15"/>
       <c r="D40" s="21"/>
       <c r="E40" s="21"/>
     </row>
-    <row r="41" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A41" s="16"/>
       <c r="B41" s="15"/>
       <c r="D41" s="21"/>
       <c r="E41" s="21"/>
     </row>
-    <row r="42" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A42" s="16"/>
       <c r="B42" s="15"/>
       <c r="D42" s="21"/>
       <c r="E42" s="21"/>
     </row>
-    <row r="43" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A43" s="16"/>
       <c r="B43" s="18"/>
       <c r="C43" s="19"/>
       <c r="D43" s="18"/>
       <c r="E43" s="20"/>
     </row>
-    <row r="44" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A44" s="16"/>
       <c r="B44" s="18"/>
       <c r="C44" s="19"/>
       <c r="D44" s="18"/>
       <c r="E44" s="20"/>
     </row>
-    <row r="45" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A45" s="16"/>
       <c r="B45" s="18"/>
       <c r="C45" s="19"/>
       <c r="D45" s="18"/>
       <c r="E45" s="20"/>
     </row>
-    <row r="46" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A46" s="16"/>
       <c r="B46" s="18"/>
       <c r="C46" s="19"/>
